--- a/Input/Takaful_Nas/rateSheet.xlsx
+++ b/Input/Takaful_Nas/rateSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="29">
   <si>
     <t xml:space="preserve">planName</t>
   </si>
@@ -31,9 +31,6 @@
     <t xml:space="preserve">coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
     <t xml:space="preserve">ageStart</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
   </si>
   <si>
     <t xml:space="preserve">copay</t>
@@ -99,6 +99,15 @@
   <si>
     <t xml:space="preserve">NAS WN (OP restricted to clinics)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS – VN (OP Restricted to Clinics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS VN (OP Restricted to Clinics)</t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +117,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,6 +143,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -179,7 +195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,37 +204,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B126" activeCellId="0" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -248,7 +273,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -262,25 +287,25 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>9085</v>
-      </c>
-      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>10839</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -294,25 +319,25 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
+      <c r="D3" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>6705</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="3" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -326,25 +351,25 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
+      <c r="D4" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>7142</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="3" t="n">
+        <v>7409</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -358,25 +383,25 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
+      <c r="D5" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>10826</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="3" t="n">
+        <v>11232</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -390,25 +415,25 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
+      <c r="D6" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>11452</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="F6" s="3" t="n">
+        <v>11881</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -422,25 +447,25 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
+      <c r="D7" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>8675</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="F7" s="3" t="n">
+        <v>10801</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -454,25 +479,25 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
+      <c r="D8" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>9282</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="3" t="n">
+        <v>9630</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -486,25 +511,25 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
+      <c r="D9" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="F9" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>11542</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="3" t="n">
+        <v>11975</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -518,25 +543,25 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
+      <c r="D10" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>14427</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="F10" s="3" t="n">
+        <v>14969</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -550,25 +575,25 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
+      <c r="D11" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>18216</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="F11" s="3" t="n">
+        <v>18899</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -582,25 +607,25 @@
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
+      <c r="D12" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="F12" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <v>23940</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="F12" s="3" t="n">
+        <v>24838</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -614,25 +639,25 @@
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
+      <c r="D13" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="F13" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <v>30530</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="F13" s="3" t="n">
+        <v>31675</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -646,25 +671,25 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>9994</v>
-      </c>
-      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>11924</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -678,25 +703,25 @@
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
+      <c r="D15" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <v>7502</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="F15" s="3" t="n">
+        <v>8951</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -710,25 +735,25 @@
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
+      <c r="D16" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G16" s="1" t="n">
-        <v>14293</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="F16" s="3" t="n">
+        <v>14829</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -742,25 +767,25 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
+      <c r="D17" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G17" s="1" t="n">
-        <v>21666</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="F17" s="3" t="n">
+        <v>22479</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -774,25 +799,25 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
+      <c r="D18" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="F18" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G18" s="1" t="n">
-        <v>24276</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="F18" s="3" t="n">
+        <v>25187</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -806,25 +831,25 @@
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
+      <c r="D19" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="F19" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G19" s="1" t="n">
-        <v>12253</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="F19" s="3" t="n">
+        <v>15255</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -838,25 +863,25 @@
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
+      <c r="D20" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="F20" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G20" s="1" t="n">
-        <v>13617</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="F20" s="3" t="n">
+        <v>14128</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -870,25 +895,25 @@
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
+      <c r="D21" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="F21" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <v>15005</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="F21" s="3" t="n">
+        <v>15568</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -902,25 +927,25 @@
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
+      <c r="D22" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="F22" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <v>17313</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="F22" s="3" t="n">
+        <v>17962</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -934,25 +959,25 @@
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
+      <c r="D23" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="F23" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G23" s="1" t="n">
-        <v>21859</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="F23" s="3" t="n">
+        <v>22679</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -966,25 +991,25 @@
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
+      <c r="D24" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="F24" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <v>26333</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="F24" s="3" t="n">
+        <v>27321</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -998,25 +1023,25 @@
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>17</v>
+      <c r="D25" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="F25" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G25" s="1" t="n">
-        <v>30530</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="F25" s="3" t="n">
+        <v>31675</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1030,25 +1055,25 @@
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>13</v>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>7966</v>
-      </c>
-      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>9504</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1062,25 +1087,25 @@
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
+      <c r="D27" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F27" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G27" s="1" t="n">
-        <v>5405</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="F27" s="3" t="n">
+        <v>6449</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1094,25 +1119,25 @@
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>13</v>
+      <c r="D28" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="F28" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G28" s="1" t="n">
-        <v>5758</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="F28" s="3" t="n">
+        <v>5974</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1126,25 +1151,25 @@
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>13</v>
+      <c r="D29" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="F29" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G29" s="1" t="n">
-        <v>6109</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="F29" s="3" t="n">
+        <v>7289</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1158,25 +1183,25 @@
       <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>13</v>
+      <c r="D30" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="F30" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G30" s="1" t="n">
-        <v>9232</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="F30" s="3" t="n">
+        <v>10536</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1190,25 +1215,25 @@
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>13</v>
+      <c r="D31" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="F31" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G31" s="1" t="n">
-        <v>7147</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="F31" s="3" t="n">
+        <v>8156</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1222,25 +1247,25 @@
       <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>13</v>
+      <c r="D32" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="F32" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G32" s="1" t="n">
-        <v>7647</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="F32" s="3" t="n">
+        <v>8727</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1254,25 +1279,25 @@
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>13</v>
+      <c r="D33" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="F33" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G33" s="1" t="n">
-        <v>9880</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="F33" s="3" t="n">
+        <v>10251</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1286,25 +1311,25 @@
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>13</v>
+      <c r="D34" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="F34" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G34" s="1" t="n">
-        <v>12350</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="F34" s="3" t="n">
+        <v>12814</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1318,25 +1343,25 @@
       <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>13</v>
+      <c r="D35" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="F35" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G35" s="1" t="n">
-        <v>15533</v>
-      </c>
-      <c r="H35" s="2" t="s">
+      <c r="F35" s="3" t="n">
+        <v>16116</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1350,25 +1375,25 @@
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>13</v>
+      <c r="D36" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="F36" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G36" s="1" t="n">
-        <v>20365</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="F36" s="3" t="n">
+        <v>21129</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="J36" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1382,25 +1407,25 @@
       <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>13</v>
+      <c r="D37" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="F37" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G37" s="1" t="n">
-        <v>25936</v>
-      </c>
-      <c r="H37" s="2" t="s">
+      <c r="F37" s="3" t="n">
+        <v>26909</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1414,25 +1439,25 @@
       <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>17</v>
+      <c r="D38" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>8301</v>
-      </c>
-      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>9905</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="J38" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1446,25 +1471,25 @@
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>17</v>
+      <c r="D39" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F39" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G39" s="1" t="n">
-        <v>5934</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="F39" s="3" t="n">
+        <v>7080</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1478,25 +1503,25 @@
       <c r="C40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>17</v>
+      <c r="D40" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="F40" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G40" s="1" t="n">
-        <v>13988</v>
-      </c>
-      <c r="H40" s="2" t="s">
+      <c r="F40" s="3" t="n">
+        <v>14513</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="J40" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1510,25 +1535,25 @@
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>17</v>
+      <c r="D41" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="F41" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G41" s="1" t="n">
-        <v>16509</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="F41" s="3" t="n">
+        <v>19698</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="J41" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1542,25 +1567,25 @@
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>17</v>
+      <c r="D42" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="F42" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G42" s="1" t="n">
-        <v>9723</v>
-      </c>
-      <c r="H42" s="2" t="s">
+      <c r="F42" s="3" t="n">
+        <v>11096</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="J42" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1574,25 +1599,25 @@
       <c r="C43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>17</v>
+      <c r="D43" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="F43" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G43" s="1" t="n">
-        <v>9673</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="F43" s="3" t="n">
+        <v>11039</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="0" t="s">
+      <c r="J43" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1606,25 +1631,25 @@
       <c r="C44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>17</v>
+      <c r="D44" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="F44" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G44" s="1" t="n">
-        <v>11037</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="F44" s="3" t="n">
+        <v>12595</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="J44" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1638,25 +1663,25 @@
       <c r="C45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>17</v>
+      <c r="D45" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="F45" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G45" s="1" t="n">
-        <v>12844</v>
-      </c>
-      <c r="H45" s="2" t="s">
+      <c r="F45" s="3" t="n">
+        <v>13326</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="0" t="s">
+      <c r="J45" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1670,25 +1695,25 @@
       <c r="C46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>17</v>
+      <c r="D46" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="F46" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G46" s="1" t="n">
-        <v>14820</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="F46" s="3" t="n">
+        <v>15376</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="0" t="s">
+      <c r="J46" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1702,25 +1727,25 @@
       <c r="C47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>17</v>
+      <c r="D47" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="F47" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G47" s="1" t="n">
-        <v>18640</v>
-      </c>
-      <c r="H47" s="2" t="s">
+      <c r="F47" s="3" t="n">
+        <v>19339</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="0" t="s">
+      <c r="J47" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1734,25 +1759,25 @@
       <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>17</v>
+      <c r="D48" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="F48" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G48" s="1" t="n">
-        <v>22401</v>
-      </c>
-      <c r="H48" s="2" t="s">
+      <c r="F48" s="3" t="n">
+        <v>23242</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J48" s="0" t="s">
+      <c r="J48" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1766,25 +1791,25 @@
       <c r="C49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>17</v>
+      <c r="D49" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="F49" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G49" s="1" t="n">
-        <v>25936</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="F49" s="3" t="n">
+        <v>26909</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="0" t="s">
+      <c r="J49" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1798,25 +1823,25 @@
       <c r="C50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>13</v>
+      <c r="D50" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>5548</v>
-      </c>
-      <c r="H50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>6044</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="0" t="s">
+      <c r="J50" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1830,25 +1855,25 @@
       <c r="C51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>13</v>
+      <c r="D51" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F51" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G51" s="1" t="n">
-        <v>3749</v>
-      </c>
-      <c r="H51" s="2" t="s">
+      <c r="F51" s="3" t="n">
+        <v>3890</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="0" t="s">
+      <c r="J51" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1862,25 +1887,25 @@
       <c r="C52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>13</v>
+      <c r="D52" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="F52" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G52" s="1" t="n">
-        <v>3993</v>
-      </c>
-      <c r="H52" s="2" t="s">
+      <c r="F52" s="3" t="n">
+        <v>4557</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J52" s="0" t="s">
+      <c r="J52" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1894,25 +1919,25 @@
       <c r="C53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>13</v>
+      <c r="D53" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="F53" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G53" s="1" t="n">
-        <v>4238</v>
-      </c>
-      <c r="H53" s="2" t="s">
+      <c r="F53" s="3" t="n">
+        <v>4837</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="0" t="s">
+      <c r="J53" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1926,25 +1951,25 @@
       <c r="C54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>13</v>
+      <c r="D54" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="F54" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G54" s="1" t="n">
-        <v>4482</v>
-      </c>
-      <c r="H54" s="2" t="s">
+      <c r="F54" s="3" t="n">
+        <v>5115</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J54" s="0" t="s">
+      <c r="J54" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1958,25 +1983,25 @@
       <c r="C55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>13</v>
+      <c r="D55" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="F55" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G55" s="1" t="n">
-        <v>4926</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="F55" s="3" t="n">
+        <v>5111</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="0" t="s">
+      <c r="J55" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1990,25 +2015,25 @@
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>13</v>
+      <c r="D56" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="F56" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G56" s="1" t="n">
-        <v>5270</v>
-      </c>
-      <c r="H56" s="2" t="s">
+      <c r="F56" s="3" t="n">
+        <v>5468</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J56" s="0" t="s">
+      <c r="J56" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2022,25 +2047,25 @@
       <c r="C57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>13</v>
+      <c r="D57" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="F57" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G57" s="1" t="n">
-        <v>6747</v>
-      </c>
-      <c r="H57" s="2" t="s">
+      <c r="F57" s="3" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="0" t="s">
+      <c r="J57" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2054,25 +2079,25 @@
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>13</v>
+      <c r="D58" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="F58" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G58" s="1" t="n">
-        <v>8434</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="F58" s="3" t="n">
+        <v>8750</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J58" s="0" t="s">
+      <c r="J58" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2086,25 +2111,25 @@
       <c r="C59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>13</v>
+      <c r="D59" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="F59" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G59" s="1" t="n">
-        <v>10540</v>
-      </c>
-      <c r="H59" s="2" t="s">
+      <c r="F59" s="3" t="n">
+        <v>10935</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J59" s="0" t="s">
+      <c r="J59" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2118,25 +2143,25 @@
       <c r="C60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>13</v>
+      <c r="D60" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="F60" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G60" s="1" t="n">
-        <v>13763</v>
-      </c>
-      <c r="H60" s="2" t="s">
+      <c r="F60" s="3" t="n">
+        <v>14280</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J60" s="0" t="s">
+      <c r="J60" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2150,25 +2175,25 @@
       <c r="C61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>13</v>
+      <c r="D61" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="F61" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G61" s="1" t="n">
-        <v>17490</v>
-      </c>
-      <c r="H61" s="2" t="s">
+      <c r="F61" s="3" t="n">
+        <v>18146</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J61" s="0" t="s">
+      <c r="J61" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2182,25 +2207,25 @@
       <c r="C62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>17</v>
+      <c r="D62" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>5780</v>
-      </c>
-      <c r="H62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>6297</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J62" s="0" t="s">
+      <c r="J62" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2214,25 +2239,25 @@
       <c r="C63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>17</v>
+      <c r="D63" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F63" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G63" s="1" t="n">
-        <v>4144</v>
-      </c>
-      <c r="H63" s="2" t="s">
+      <c r="F63" s="3" t="n">
+        <v>4300</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J63" s="0" t="s">
+      <c r="J63" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2246,25 +2271,25 @@
       <c r="C64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>17</v>
+      <c r="D64" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="F64" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G64" s="1" t="n">
-        <v>4669</v>
-      </c>
-      <c r="H64" s="2" t="s">
+      <c r="F64" s="3" t="n">
+        <v>5328</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J64" s="0" t="s">
+      <c r="J64" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2278,25 +2303,25 @@
       <c r="C65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>17</v>
+      <c r="D65" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="F65" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G65" s="1" t="n">
-        <v>5845</v>
-      </c>
-      <c r="H65" s="2" t="s">
+      <c r="F65" s="3" t="n">
+        <v>6671</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J65" s="0" t="s">
+      <c r="J65" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2310,25 +2335,25 @@
       <c r="C66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>17</v>
+      <c r="D66" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="F66" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G66" s="1" t="n">
-        <v>9332</v>
-      </c>
-      <c r="H66" s="2" t="s">
+      <c r="F66" s="3" t="n">
+        <v>10650</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J66" s="0" t="s">
+      <c r="J66" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2342,25 +2367,25 @@
       <c r="C67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>17</v>
+      <c r="D67" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="F67" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G67" s="1" t="n">
-        <v>6767</v>
-      </c>
-      <c r="H67" s="2" t="s">
+      <c r="F67" s="3" t="n">
+        <v>7021</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J67" s="0" t="s">
+      <c r="J67" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2374,25 +2399,25 @@
       <c r="C68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>17</v>
+      <c r="D68" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="F68" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G68" s="1" t="n">
-        <v>7649</v>
-      </c>
-      <c r="H68" s="2" t="s">
+      <c r="F68" s="3" t="n">
+        <v>7936</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J68" s="0" t="s">
+      <c r="J68" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2406,25 +2431,25 @@
       <c r="C69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>17</v>
+      <c r="D69" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="F69" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G69" s="1" t="n">
-        <v>8772</v>
-      </c>
-      <c r="H69" s="2" t="s">
+      <c r="F69" s="3" t="n">
+        <v>9101</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="0" t="s">
+      <c r="J69" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2438,25 +2463,25 @@
       <c r="C70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>17</v>
+      <c r="D70" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="F70" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G70" s="1" t="n">
-        <v>10121</v>
-      </c>
-      <c r="H70" s="2" t="s">
+      <c r="F70" s="3" t="n">
+        <v>10501</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="0" t="s">
+      <c r="J70" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2470,25 +2495,25 @@
       <c r="C71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>17</v>
+      <c r="D71" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="F71" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G71" s="1" t="n">
-        <v>12649</v>
-      </c>
-      <c r="H71" s="2" t="s">
+      <c r="F71" s="3" t="n">
+        <v>13123</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="0" t="s">
+      <c r="J71" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2502,25 +2527,25 @@
       <c r="C72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>17</v>
+      <c r="D72" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="F72" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G72" s="1" t="n">
-        <v>15140</v>
-      </c>
-      <c r="H72" s="2" t="s">
+      <c r="F72" s="3" t="n">
+        <v>15708</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J72" s="0" t="s">
+      <c r="J72" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2534,25 +2559,25 @@
       <c r="C73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>17</v>
+      <c r="D73" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="F73" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G73" s="1" t="n">
-        <v>17490</v>
-      </c>
-      <c r="H73" s="2" t="s">
+      <c r="F73" s="3" t="n">
+        <v>18146</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J73" s="0" t="s">
+      <c r="J73" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2566,25 +2591,25 @@
       <c r="C74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>13</v>
+      <c r="D74" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G74" s="1" t="n">
-        <v>4533</v>
-      </c>
-      <c r="H74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>5173</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J74" s="0" t="s">
+      <c r="J74" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2598,25 +2623,25 @@
       <c r="C75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>13</v>
+      <c r="D75" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F75" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G75" s="1" t="n">
-        <v>3051</v>
-      </c>
-      <c r="H75" s="2" t="s">
+      <c r="F75" s="3" t="n">
+        <v>3166</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J75" s="0" t="s">
+      <c r="J75" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2630,25 +2655,25 @@
       <c r="C76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>13</v>
+      <c r="D76" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="F76" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G76" s="1" t="n">
-        <v>3250</v>
-      </c>
-      <c r="H76" s="2" t="s">
+      <c r="F76" s="3" t="n">
+        <v>3710</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J76" s="0" t="s">
+      <c r="J76" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2662,25 +2687,25 @@
       <c r="C77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>13</v>
+      <c r="D77" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="F77" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G77" s="1" t="n">
-        <v>3450</v>
-      </c>
-      <c r="H77" s="2" t="s">
+      <c r="F77" s="3" t="n">
+        <v>3579</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J77" s="0" t="s">
+      <c r="J77" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2694,25 +2719,25 @@
       <c r="C78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>13</v>
+      <c r="D78" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="F78" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G78" s="1" t="n">
-        <v>3649</v>
-      </c>
-      <c r="H78" s="2" t="s">
+      <c r="F78" s="3" t="n">
+        <v>3975</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J78" s="0" t="s">
+      <c r="J78" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2726,25 +2751,25 @@
       <c r="C79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>13</v>
+      <c r="D79" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="F79" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G79" s="1" t="n">
-        <v>3986</v>
-      </c>
-      <c r="H79" s="2" t="s">
+      <c r="F79" s="3" t="n">
+        <v>4135</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J79" s="0" t="s">
+      <c r="J79" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2758,25 +2783,25 @@
       <c r="C80" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>13</v>
+      <c r="D80" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="F80" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G80" s="1" t="n">
-        <v>4265</v>
-      </c>
-      <c r="H80" s="2" t="s">
+      <c r="F80" s="3" t="n">
+        <v>4425</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J80" s="0" t="s">
+      <c r="J80" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2790,25 +2815,25 @@
       <c r="C81" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>13</v>
+      <c r="D81" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="F81" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G81" s="1" t="n">
-        <v>4938</v>
-      </c>
-      <c r="H81" s="2" t="s">
+      <c r="F81" s="3" t="n">
+        <v>5123</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J81" s="0" t="s">
+      <c r="J81" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2822,25 +2847,25 @@
       <c r="C82" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>13</v>
+      <c r="D82" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="F82" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G82" s="1" t="n">
-        <v>6173</v>
-      </c>
-      <c r="H82" s="2" t="s">
+      <c r="F82" s="3" t="n">
+        <v>6404</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J82" s="0" t="s">
+      <c r="J82" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2854,25 +2879,25 @@
       <c r="C83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>13</v>
+      <c r="D83" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="F83" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G83" s="1" t="n">
-        <v>7638</v>
-      </c>
-      <c r="H83" s="2" t="s">
+      <c r="F83" s="3" t="n">
+        <v>7924</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J83" s="0" t="s">
+      <c r="J83" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2886,25 +2911,25 @@
       <c r="C84" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>13</v>
+      <c r="D84" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="F84" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G84" s="1" t="n">
-        <v>9399</v>
-      </c>
-      <c r="H84" s="2" t="s">
+      <c r="F84" s="3" t="n">
+        <v>9751</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J84" s="0" t="s">
+      <c r="J84" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2918,25 +2943,25 @@
       <c r="C85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>13</v>
+      <c r="D85" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="F85" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G85" s="1" t="n">
-        <v>11230</v>
-      </c>
-      <c r="H85" s="2" t="s">
+      <c r="F85" s="3" t="n">
+        <v>11651</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J85" s="0" t="s">
+      <c r="J85" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2950,25 +2975,25 @@
       <c r="C86" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>17</v>
+      <c r="D86" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G86" s="1" t="n">
-        <v>4723</v>
-      </c>
-      <c r="H86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>5390</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J86" s="0" t="s">
+      <c r="J86" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2982,25 +3007,25 @@
       <c r="C87" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>17</v>
+      <c r="D87" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F87" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G87" s="1" t="n">
-        <v>3414</v>
-      </c>
-      <c r="H87" s="2" t="s">
+      <c r="F87" s="3" t="n">
+        <v>3542</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J87" s="0" t="s">
+      <c r="J87" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3014,25 +3039,25 @@
       <c r="C88" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>17</v>
+      <c r="D88" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="F88" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G88" s="1" t="n">
-        <v>4120</v>
-      </c>
-      <c r="H88" s="2" t="s">
+      <c r="F88" s="3" t="n">
+        <v>4702</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J88" s="0" t="s">
+      <c r="J88" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3046,25 +3071,25 @@
       <c r="C89" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>17</v>
+      <c r="D89" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="F89" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G89" s="1" t="n">
-        <v>4931</v>
-      </c>
-      <c r="H89" s="2" t="s">
+      <c r="F89" s="3" t="n">
+        <v>5116</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J89" s="0" t="s">
+      <c r="J89" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3078,25 +3103,25 @@
       <c r="C90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>17</v>
+      <c r="D90" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="F90" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G90" s="1" t="n">
-        <v>6905</v>
-      </c>
-      <c r="H90" s="2" t="s">
+      <c r="F90" s="3" t="n">
+        <v>7522</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J90" s="0" t="s">
+      <c r="J90" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3110,25 +3135,25 @@
       <c r="C91" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>17</v>
+      <c r="D91" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="F91" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G91" s="1" t="n">
-        <v>5614</v>
-      </c>
-      <c r="H91" s="2" t="s">
+      <c r="F91" s="3" t="n">
+        <v>5825</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J91" s="0" t="s">
+      <c r="J91" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3142,25 +3167,25 @@
       <c r="C92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>17</v>
+      <c r="D92" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="F92" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G92" s="1" t="n">
-        <v>6250</v>
-      </c>
-      <c r="H92" s="2" t="s">
+      <c r="F92" s="3" t="n">
+        <v>6485</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J92" s="0" t="s">
+      <c r="J92" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3174,25 +3199,25 @@
       <c r="C93" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>17</v>
+      <c r="D93" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="F93" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G93" s="1" t="n">
-        <v>6419</v>
-      </c>
-      <c r="H93" s="2" t="s">
+      <c r="F93" s="3" t="n">
+        <v>6660</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J93" s="0" t="s">
+      <c r="J93" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3206,25 +3231,25 @@
       <c r="C94" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>17</v>
+      <c r="D94" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="F94" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G94" s="1" t="n">
-        <v>7407</v>
-      </c>
-      <c r="H94" s="2" t="s">
+      <c r="F94" s="3" t="n">
+        <v>7685</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J94" s="0" t="s">
+      <c r="J94" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3238,25 +3263,25 @@
       <c r="C95" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>17</v>
+      <c r="D95" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="F95" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G95" s="1" t="n">
-        <v>9165</v>
-      </c>
-      <c r="H95" s="2" t="s">
+      <c r="F95" s="3" t="n">
+        <v>9509</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J95" s="0" t="s">
+      <c r="J95" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3270,25 +3295,25 @@
       <c r="C96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>17</v>
+      <c r="D96" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="F96" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G96" s="1" t="n">
-        <v>10338</v>
-      </c>
-      <c r="H96" s="2" t="s">
+      <c r="F96" s="3" t="n">
+        <v>10726</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J96" s="0" t="s">
+      <c r="J96" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3302,25 +3327,25 @@
       <c r="C97" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>17</v>
+      <c r="D97" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="F97" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G97" s="1" t="n">
-        <v>11230</v>
-      </c>
-      <c r="H97" s="2" t="s">
+      <c r="F97" s="3" t="n">
+        <v>11651</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J97" s="0" t="s">
+      <c r="J97" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3334,25 +3359,25 @@
       <c r="C98" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>13</v>
+      <c r="D98" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G98" s="1" t="n">
-        <v>2406</v>
-      </c>
-      <c r="H98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>2871</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J98" s="0" t="s">
+      <c r="J98" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3366,25 +3391,25 @@
       <c r="C99" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>13</v>
+      <c r="D99" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F99" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G99" s="1" t="n">
-        <v>1825</v>
-      </c>
-      <c r="H99" s="2" t="s">
+      <c r="F99" s="3" t="n">
+        <v>1894</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J99" s="0" t="s">
+      <c r="J99" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3398,25 +3423,25 @@
       <c r="C100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>13</v>
+      <c r="D100" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="F100" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G100" s="1" t="n">
-        <v>1945</v>
-      </c>
-      <c r="H100" s="2" t="s">
+      <c r="F100" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J100" s="0" t="s">
+      <c r="J100" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3430,25 +3455,25 @@
       <c r="C101" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>13</v>
+      <c r="D101" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="F101" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G101" s="1" t="n">
-        <v>2064</v>
-      </c>
-      <c r="H101" s="2" t="s">
+      <c r="F101" s="3" t="n">
+        <v>2141</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J101" s="0" t="s">
+      <c r="J101" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3462,25 +3487,25 @@
       <c r="C102" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>13</v>
+      <c r="D102" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="F102" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G102" s="1" t="n">
-        <v>2183</v>
-      </c>
-      <c r="H102" s="2" t="s">
+      <c r="F102" s="3" t="n">
+        <v>2265</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J102" s="0" t="s">
+      <c r="J102" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3494,25 +3519,25 @@
       <c r="C103" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>13</v>
+      <c r="D103" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="F103" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G103" s="1" t="n">
-        <v>2488</v>
-      </c>
-      <c r="H103" s="2" t="s">
+      <c r="F103" s="3" t="n">
+        <v>2581</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J103" s="0" t="s">
+      <c r="J103" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3526,25 +3551,25 @@
       <c r="C104" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>13</v>
+      <c r="D104" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="F104" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G104" s="1" t="n">
-        <v>2662</v>
-      </c>
-      <c r="H104" s="2" t="s">
+      <c r="F104" s="3" t="n">
+        <v>2762</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J104" s="0" t="s">
+      <c r="J104" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3558,25 +3583,25 @@
       <c r="C105" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>13</v>
+      <c r="D105" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="F105" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G105" s="1" t="n">
-        <v>3223</v>
-      </c>
-      <c r="H105" s="2" t="s">
+      <c r="F105" s="3" t="n">
+        <v>3344</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J105" s="0" t="s">
+      <c r="J105" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3590,25 +3615,25 @@
       <c r="C106" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>13</v>
+      <c r="D106" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="F106" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G106" s="1" t="n">
-        <v>4028</v>
-      </c>
-      <c r="H106" s="2" t="s">
+      <c r="F106" s="3" t="n">
+        <v>4179</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J106" s="0" t="s">
+      <c r="J106" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3622,25 +3647,25 @@
       <c r="C107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>13</v>
+      <c r="D107" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="F107" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G107" s="1" t="n">
-        <v>4710</v>
-      </c>
-      <c r="H107" s="2" t="s">
+      <c r="F107" s="3" t="n">
+        <v>4887</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J107" s="0" t="s">
+      <c r="J107" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3654,25 +3679,25 @@
       <c r="C108" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>13</v>
+      <c r="D108" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="F108" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G108" s="1" t="n">
-        <v>5899</v>
-      </c>
-      <c r="H108" s="2" t="s">
+      <c r="F108" s="3" t="n">
+        <v>6120</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J108" s="0" t="s">
+      <c r="J108" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3686,25 +3711,25 @@
       <c r="C109" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>13</v>
+      <c r="D109" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="F109" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G109" s="1" t="n">
-        <v>7139</v>
-      </c>
-      <c r="H109" s="2" t="s">
+      <c r="F109" s="3" t="n">
+        <v>7406</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J109" s="0" t="s">
+      <c r="J109" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3718,25 +3743,25 @@
       <c r="C110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>17</v>
+      <c r="D110" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G110" s="1" t="n">
-        <v>2647</v>
-      </c>
-      <c r="H110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="3" t="n">
+        <v>3159</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J110" s="0" t="s">
+      <c r="J110" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3750,25 +3775,25 @@
       <c r="C111" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>17</v>
+      <c r="D111" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F111" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G111" s="1" t="n">
-        <v>2138</v>
-      </c>
-      <c r="H111" s="2" t="s">
+      <c r="F111" s="3" t="n">
+        <v>2218</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J111" s="0" t="s">
+      <c r="J111" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3782,25 +3807,25 @@
       <c r="C112" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>17</v>
+      <c r="D112" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="F112" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G112" s="1" t="n">
-        <v>2576</v>
-      </c>
-      <c r="H112" s="2" t="s">
+      <c r="F112" s="3" t="n">
+        <v>2673</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J112" s="0" t="s">
+      <c r="J112" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3814,25 +3839,25 @@
       <c r="C113" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>17</v>
+      <c r="D113" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="F113" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G113" s="1" t="n">
-        <v>3352</v>
-      </c>
-      <c r="H113" s="2" t="s">
+      <c r="F113" s="3" t="n">
+        <v>3478</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J113" s="0" t="s">
+      <c r="J113" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3846,25 +3871,25 @@
       <c r="C114" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>17</v>
+      <c r="D114" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="F114" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G114" s="1" t="n">
-        <v>3787</v>
-      </c>
-      <c r="H114" s="2" t="s">
+      <c r="F114" s="3" t="n">
+        <v>3929</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J114" s="0" t="s">
+      <c r="J114" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3878,25 +3903,25 @@
       <c r="C115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>17</v>
+      <c r="D115" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="F115" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G115" s="1" t="n">
-        <v>3763</v>
-      </c>
-      <c r="H115" s="2" t="s">
+      <c r="F115" s="3" t="n">
+        <v>3904</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J115" s="0" t="s">
+      <c r="J115" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3910,25 +3935,25 @@
       <c r="C116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>17</v>
+      <c r="D116" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="F116" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G116" s="1" t="n">
-        <v>4012</v>
-      </c>
-      <c r="H116" s="2" t="s">
+      <c r="F116" s="3" t="n">
+        <v>4163</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J116" s="0" t="s">
+      <c r="J116" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3942,25 +3967,25 @@
       <c r="C117" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>17</v>
+      <c r="D117" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="F117" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G117" s="1" t="n">
-        <v>4190</v>
-      </c>
-      <c r="H117" s="2" t="s">
+      <c r="F117" s="3" t="n">
+        <v>4347</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J117" s="0" t="s">
+      <c r="J117" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3974,25 +3999,25 @@
       <c r="C118" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>17</v>
+      <c r="D118" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="F118" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G118" s="1" t="n">
-        <v>4834</v>
-      </c>
-      <c r="H118" s="2" t="s">
+      <c r="F118" s="3" t="n">
+        <v>5015</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J118" s="0" t="s">
+      <c r="J118" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4006,25 +4031,25 @@
       <c r="C119" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>17</v>
+      <c r="D119" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="F119" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G119" s="1" t="n">
-        <v>5653</v>
-      </c>
-      <c r="H119" s="2" t="s">
+      <c r="F119" s="3" t="n">
+        <v>5865</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J119" s="0" t="s">
+      <c r="J119" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4038,25 +4063,25 @@
       <c r="C120" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>17</v>
+      <c r="D120" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="F120" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G120" s="1" t="n">
-        <v>6490</v>
-      </c>
-      <c r="H120" s="2" t="s">
+      <c r="F120" s="3" t="n">
+        <v>6734</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J120" s="0" t="s">
+      <c r="J120" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4070,25 +4095,793 @@
       <c r="C121" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>17</v>
+      <c r="D121" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="E121" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="F121" s="3" t="n">
+        <v>7406</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F122" s="3" t="n">
+        <v>2610</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F123" s="3" t="n">
+        <v>1722</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="F124" s="3" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F125" s="3" t="n">
+        <v>1947</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="F126" s="3" t="n">
+        <v>2059</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="E127" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>2346</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="F128" s="3" t="n">
+        <v>2511</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F129" s="3" t="n">
+        <v>3040</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="E130" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="F130" s="3" t="n">
+        <v>3800</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="E131" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F131" s="3" t="n">
+        <v>4443</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="F132" s="3" t="n">
+        <v>5564</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="F121" s="1" t="n">
+      <c r="E133" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G121" s="1" t="n">
-        <v>7139</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J121" s="0" t="s">
+      <c r="F133" s="3" t="n">
+        <v>6733</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F134" s="3" t="n">
+        <v>2872</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F135" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E136" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="F136" s="3" t="n">
+        <v>2430</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E137" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F137" s="3" t="n">
+        <v>3162</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E138" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>3572</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="E139" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F139" s="3" t="n">
+        <v>3549</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="E140" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="F140" s="3" t="n">
+        <v>3784</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E141" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F141" s="3" t="n">
+        <v>3952</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="E142" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="F142" s="3" t="n">
+        <v>4559</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="E143" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F143" s="3" t="n">
+        <v>5332</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="E144" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="F144" s="3" t="n">
+        <v>6121</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="F145" s="3" t="n">
+        <v>6733</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="2" t="s">
         <v>16</v>
       </c>
     </row>
